--- a/doc/power-calcs-scratch.xlsx
+++ b/doc/power-calcs-scratch.xlsx
@@ -8,17 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mwg/code/EE Projects 2022-/Homebrew-ECP5-SBC/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F9FC463-2AE7-1F4E-9ABF-3159A57C3F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70267F7-6AB2-0545-9AC2-E9FF63AC1DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="680" windowWidth="28040" windowHeight="17420" activeTab="3" xr2:uid="{F7F45CF3-B15F-DB4D-970C-85D49C7DE25A}"/>
+    <workbookView xWindow="940" yWindow="680" windowWidth="28040" windowHeight="17420" activeTab="6" xr2:uid="{F7F45CF3-B15F-DB4D-970C-85D49C7DE25A}"/>
   </bookViews>
   <sheets>
     <sheet name="ECP5 Ramp Rates" sheetId="2" r:id="rId1"/>
     <sheet name="Test Loads" sheetId="4" r:id="rId2"/>
     <sheet name="INA250" sheetId="5" r:id="rId3"/>
-    <sheet name="LM21212-2" sheetId="1" r:id="rId4"/>
+    <sheet name="Shunt R Calcs" sheetId="9" r:id="rId4"/>
+    <sheet name="LM21212-2" sheetId="1" r:id="rId5"/>
+    <sheet name="TPS565247" sheetId="6" r:id="rId6"/>
+    <sheet name="TPS25948" sheetId="8" r:id="rId7"/>
+    <sheet name="E96 Series" sheetId="10" r:id="rId8"/>
+    <sheet name="IRF9540NS" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="190">
   <si>
     <t>VOUT</t>
   </si>
@@ -87,6 +92,9 @@
   </si>
   <si>
     <t>Desired f_SW</t>
+  </si>
+  <si>
+    <t>Hz</t>
   </si>
   <si>
     <t>kHz</t>
@@ -282,18 +290,418 @@
   <si>
     <t>&lt;-- can sense with 3.3V ADC inputs, no resistor divider</t>
   </si>
+  <si>
+    <t>Minimum Inductor</t>
+  </si>
+  <si>
+    <t>V_in</t>
+  </si>
+  <si>
+    <t>V_out</t>
+  </si>
+  <si>
+    <t>f_sw</t>
+  </si>
+  <si>
+    <t>NOC_min</t>
+  </si>
+  <si>
+    <t>L (min)</t>
+  </si>
+  <si>
+    <t>per Fig 6.8</t>
+  </si>
+  <si>
+    <t>V_SD Voltage Drop at 5A</t>
+  </si>
+  <si>
+    <t>R_DS(on)max</t>
+  </si>
+  <si>
+    <t>Ω</t>
+  </si>
+  <si>
+    <t>V_SD</t>
+  </si>
+  <si>
+    <t>I_D</t>
+  </si>
+  <si>
+    <t>V_SD Voltage Drop</t>
+  </si>
+  <si>
+    <t>NMOS with lower R_ds(on)</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/docs/67997/sqj402ep.pdf</t>
+  </si>
+  <si>
+    <t>for https://www.infineon.com/dgdl/irf9540nspbf.pdf?fileId=5546d462533600a401535611d92a1dca</t>
+  </si>
+  <si>
+    <t>V+</t>
+  </si>
+  <si>
+    <t>R_SENSE</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>V_drop</t>
+  </si>
+  <si>
+    <t>mV</t>
+  </si>
+  <si>
+    <t>INA210</t>
+  </si>
+  <si>
+    <t>I_LOAD</t>
+  </si>
+  <si>
+    <t>R_SHUNT</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>V_REF</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>mΩ</t>
+  </si>
+  <si>
+    <t>V_OUT</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>mW</t>
+  </si>
+  <si>
+    <t>SC70 package = INA21xBIDCK{Tape/Reel]</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>INA214</t>
+  </si>
+  <si>
+    <t>Gain Error for INA21x Devices</t>
+  </si>
+  <si>
+    <t>R_s</t>
+  </si>
+  <si>
+    <t>(see datasheet 6.4.1)</t>
+  </si>
+  <si>
+    <t>Gain Error factor</t>
+  </si>
+  <si>
+    <t>Gain error %age</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>= change cell</t>
+  </si>
+  <si>
+    <t>Gray text</t>
+  </si>
+  <si>
+    <t>= don’t change</t>
+  </si>
+  <si>
+    <t>Shunt Resistor</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>CSNL1206FT2L00</t>
+  </si>
+  <si>
+    <t>1206 2mΩ 1% 1W</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CSNL1206FT2L00/1788091</t>
+  </si>
+  <si>
+    <t>INA211</t>
+  </si>
+  <si>
+    <t>&lt;-- use &gt; 3A (i.e., 5V and 12V)</t>
+  </si>
+  <si>
+    <t>&lt;-- use for &lt;= 3A (3.3V, 1.1V, 2.5V)</t>
+  </si>
+  <si>
+    <t>V_OUT FB Resistor Calcs</t>
+  </si>
+  <si>
+    <t>R_TOP (R5)</t>
+  </si>
+  <si>
+    <t>R_BOT (R6)</t>
+  </si>
+  <si>
+    <t>V+ after drop</t>
+  </si>
+  <si>
+    <t>Voltage Drop</t>
+  </si>
+  <si>
+    <t>R_ON</t>
+  </si>
+  <si>
+    <t>V_IN</t>
+  </si>
+  <si>
+    <t>Power disipation</t>
+  </si>
+  <si>
+    <t>Max Current Scenario</t>
+  </si>
+  <si>
+    <t>Min Current Scenario</t>
+  </si>
+  <si>
+    <t>TPS259480A</t>
+  </si>
+  <si>
+    <t>0A variant -&gt; auto-retry and always reverse current blocking</t>
+  </si>
+  <si>
+    <t>Yellow = editable</t>
+  </si>
+  <si>
+    <t>Overvoltage Threshold (V_OVLO)</t>
+  </si>
+  <si>
+    <t>Undervoltage Threshold (V_UVLO)</t>
+  </si>
+  <si>
+    <t>Overcurrent Threshold (I_LIM)</t>
+  </si>
+  <si>
+    <t>C_OUT</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Datasheet Parameters</t>
+  </si>
+  <si>
+    <t>FLTn goes low if:</t>
+  </si>
+  <si>
+    <t>overtemperature, persistent overcurrent</t>
+  </si>
+  <si>
+    <t>SPLYGD goes high if</t>
+  </si>
+  <si>
+    <t>EN&gt;V_SD, no UVLO, no OVLO, no in-rush</t>
+  </si>
+  <si>
+    <t>Min voltage on OVLO pin</t>
+  </si>
+  <si>
+    <t>Max voltage on OVLO pin</t>
+  </si>
+  <si>
+    <t>R_ON worst case</t>
+  </si>
+  <si>
+    <t>Enable voltage on EN/UVLO pin</t>
+  </si>
+  <si>
+    <t>V_UVLO(F,falling)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V_UVLO(R,rising) </t>
+  </si>
+  <si>
+    <t>V_SD(F,falling)</t>
+  </si>
+  <si>
+    <t>V_OV(R,rising)</t>
+  </si>
+  <si>
+    <t>V_OV(F,falling)</t>
+  </si>
+  <si>
+    <t>Orange = calculated for you</t>
+  </si>
+  <si>
+    <t>Dark orange = calculated for you, intermediate value</t>
+  </si>
+  <si>
+    <t>Desired System Parameters</t>
+  </si>
+  <si>
+    <t>R_ILM</t>
+  </si>
+  <si>
+    <t>R in Ω</t>
+  </si>
+  <si>
+    <t>R_ILM and C_ITIMER Calculation</t>
+  </si>
+  <si>
+    <t>R_ILM closest 1% E96 cap</t>
+  </si>
+  <si>
+    <t>C_ITIMER</t>
+  </si>
+  <si>
+    <t>t_ITIMER</t>
+  </si>
+  <si>
+    <t>time that overcurrent is allowed before current limiting kicks in, for transients</t>
+  </si>
+  <si>
+    <t>C_dvdt Calculation for Slew Rate</t>
+  </si>
+  <si>
+    <t>t_SWOV</t>
+  </si>
+  <si>
+    <t>t_SWRCB</t>
+  </si>
+  <si>
+    <t>μs</t>
+  </si>
+  <si>
+    <t>G_IMON</t>
+  </si>
+  <si>
+    <t>μA/A</t>
+  </si>
+  <si>
+    <t>I_dvdt</t>
+  </si>
+  <si>
+    <t>dVdt pin charging current</t>
+  </si>
+  <si>
+    <t>μA</t>
+  </si>
+  <si>
+    <t>INRUSH current</t>
+  </si>
+  <si>
+    <t>SRON</t>
+  </si>
+  <si>
+    <t>V/ms</t>
+  </si>
+  <si>
+    <t>slew rate based on desired output rise time above</t>
+  </si>
+  <si>
+    <t>C_dvdt</t>
+  </si>
+  <si>
+    <t>cap required to limit inrush current based on desired output rise time and C_OUT value</t>
+  </si>
+  <si>
+    <t>R1, R2, R3 and R4, R5 Calculations</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>470k recommented in datasheet</t>
+  </si>
+  <si>
+    <t>V_IN(OV)</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>PD_INRUSH</t>
+  </si>
+  <si>
+    <t>R2 exact</t>
+  </si>
+  <si>
+    <t>R2 E96</t>
+  </si>
+  <si>
+    <t>10mA tolerance; goal seeked by modifying R2 to set this cell to desired V_OVLO</t>
+  </si>
+  <si>
+    <t>50mA tolerance; keep trying different E96 values until this is ✅</t>
+  </si>
+  <si>
+    <t>Time to thermal shutdown</t>
+  </si>
+  <si>
+    <t>Output rise time (t_R)</t>
+  </si>
+  <si>
+    <t>get from datasheet figure 8-4 using PD_INRUSH</t>
+  </si>
+  <si>
+    <t>Is time to thermal shutdown &gt; t_R?</t>
+  </si>
+  <si>
+    <t>red = you must redo these manually each time you change system paramteres</t>
+  </si>
+  <si>
+    <t>(R2||R3) exact</t>
+  </si>
+  <si>
+    <t>R3 exact</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>==&gt;5.2</t>
+  </si>
+  <si>
+    <t>==&gt;5.5</t>
+  </si>
+  <si>
+    <t>R1+R2+R3</t>
+  </si>
+  <si>
+    <t>V_IN(OV(F)) exact</t>
+  </si>
+  <si>
+    <t>V_IN(UVLO(F)) exact</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="176" formatCode="&quot;VCC=&quot;0.#"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="&quot;VCC=&quot;0.#"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,6 +732,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -360,8 +776,76 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="7"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +855,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA960C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,10 +1004,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -495,12 +1016,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -509,45 +1031,87 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDA960C"/>
+      <color rgb="FFFFC910"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -557,6 +1121,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>140836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C4DE10-5884-B7C6-16F0-E113C6AB0A3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9283700" y="4889500"/>
+          <a:ext cx="7772400" cy="7722736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -900,136 +1513,133 @@
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="A2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="21">
+      <c r="B4">
         <v>0.1</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>24</v>
+      <c r="A5" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5">
         <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="25"/>
+        <v>24</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="24"/>
     </row>
     <row r="7" spans="1:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>26</v>
+      <c r="A7" s="25" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <f>E9</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="31" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30" t="s">
         <v>38</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="30">
+        <v>28</v>
+      </c>
+      <c r="B9" s="29">
         <v>0</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="30">
+      <c r="D9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="29">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>28</v>
+      <c r="F9" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="30">
+        <v>33</v>
+      </c>
+      <c r="H9" s="29">
         <f>E9-B9</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
+      <c r="I9" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="15">
+        <v>31</v>
+      </c>
+      <c r="B10" s="16">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="15">
         <f>B10*1000000</f>
         <v>11000</v>
       </c>
@@ -1037,54 +1647,54 @@
         <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="14">
+        <v>33</v>
+      </c>
+      <c r="H10" s="15">
         <f>H9/B10</f>
         <v>100.00000000000001</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="8">
         <f>H10/1000</f>
         <v>0.10000000000000002</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>34</v>
+      <c r="L10" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="M10" t="str">
         <f>IF(AND((ABS(K10-$B$4)/$B$4&lt;=0.01),K10&lt;=$B$4),"✅","❌")</f>
         <v>✅</v>
       </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="33">
+      <c r="N10" s="31"/>
+      <c r="O10" s="32">
         <f>ABS(K10-$B$4)/$B$4</f>
         <v>1.3877787807814457E-16</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="33">
         <f>K10-$B$4</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="29">
+        <v>32</v>
+      </c>
+      <c r="B11" s="28">
         <f>B10/($C$4/$B$4)</f>
         <v>1.0999999999999999E-4</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="15">
         <f>B11*1000000</f>
         <v>109.99999999999999</v>
       </c>
@@ -1092,111 +1702,111 @@
         <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="14">
+        <v>33</v>
+      </c>
+      <c r="H11" s="15">
         <f>H9/B11</f>
         <v>10000.000000000002</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="9">
         <f>H11/1000</f>
         <v>10.000000000000002</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>34</v>
+      <c r="L11" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="M11" t="str">
         <f>IF(AND((ABS(K11-$C$4)/$C$4&lt;=0.01),K11&lt;=$C$4),"✅","❌")</f>
         <v>✅</v>
       </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="33">
+      <c r="N11" s="31"/>
+      <c r="O11" s="32">
         <f>ABS(K11-$C$4)/$C$4</f>
         <v>1.7763568394002506E-16</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11" s="33">
         <f>K11-$C$4</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="27">
+      <c r="A13" s="26">
         <f>E14</f>
         <v>1.2</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" s="31" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30" t="s">
         <v>38</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="30">
+        <v>28</v>
+      </c>
+      <c r="B14" s="29">
         <v>0</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="35">
+      <c r="D14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="34">
         <v>1.2</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>28</v>
+      <c r="F14" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="30">
+        <v>33</v>
+      </c>
+      <c r="H14" s="29">
         <f>E14-B14</f>
         <v>1.2</v>
       </c>
-      <c r="I14" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
+      <c r="I14" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
     </row>
     <row r="15" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="15">
+        <v>31</v>
+      </c>
+      <c r="B15" s="16">
         <v>1.2E-2</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="15">
         <f>B15*1000000</f>
         <v>12000</v>
       </c>
@@ -1204,54 +1814,54 @@
         <v>12</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="14">
+        <v>33</v>
+      </c>
+      <c r="H15" s="15">
         <f>H14/B15</f>
         <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="8">
         <f>H15/1000</f>
         <v>0.1</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>34</v>
+      <c r="L15" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="M15" t="str">
         <f>IF(AND((ABS(K15-$B$4)/$B$4&lt;=0.01),K15&lt;=$B$4),"✅","❌")</f>
         <v>✅</v>
       </c>
-      <c r="N15" s="32"/>
-      <c r="O15" s="33">
+      <c r="N15" s="31"/>
+      <c r="O15" s="32">
         <f>ABS(K15-$B$4)/$B$4</f>
         <v>0</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="33">
         <f>K15-$B$4</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="29">
+        <v>32</v>
+      </c>
+      <c r="B16" s="28">
         <f>B15/($C$4/$B$4)</f>
         <v>1.2E-4</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="15">
         <f>B16*1000000</f>
         <v>120</v>
       </c>
@@ -1259,111 +1869,111 @@
         <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="14">
+        <v>33</v>
+      </c>
+      <c r="H16" s="15">
         <f>H14/B16</f>
         <v>10000</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="9">
         <f>H16/1000</f>
         <v>10</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>34</v>
+      <c r="L16" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="M16" t="str">
         <f>IF(AND((ABS(K16-$C$4)/$C$4&lt;=0.01),K16&lt;=$C$4),"✅","❌")</f>
         <v>✅</v>
       </c>
-      <c r="N16" s="32"/>
-      <c r="O16" s="33">
+      <c r="N16" s="31"/>
+      <c r="O16" s="32">
         <f>ABS(K16-$C$4)/$C$4</f>
         <v>0</v>
       </c>
-      <c r="P16" s="34">
+      <c r="P16" s="33">
         <f>K16-$C$4</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
+      <c r="A18" s="26">
         <f>E19</f>
         <v>2.5</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="P18" s="31" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30" t="s">
         <v>38</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="30">
+        <v>28</v>
+      </c>
+      <c r="B19" s="29">
         <v>0</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="35">
+      <c r="D19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="34">
         <v>2.5</v>
       </c>
-      <c r="F19" s="30" t="s">
-        <v>28</v>
+      <c r="F19" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="30">
+        <v>33</v>
+      </c>
+      <c r="H19" s="29">
         <f>E19-B19</f>
         <v>2.5</v>
       </c>
-      <c r="I19" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
+      <c r="I19" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
     </row>
     <row r="20" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="15">
+        <v>31</v>
+      </c>
+      <c r="B20" s="16">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="15">
         <f>B20*1000000</f>
         <v>25000</v>
       </c>
@@ -1371,54 +1981,54 @@
         <v>12</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="14">
+        <v>33</v>
+      </c>
+      <c r="H20" s="15">
         <f>H19/B20</f>
         <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="8">
         <f>H20/1000</f>
         <v>0.1</v>
       </c>
-      <c r="L20" s="10" t="s">
-        <v>34</v>
+      <c r="L20" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="M20" t="str">
         <f>IF(AND((ABS(K20-$B$4)/$B$4&lt;=0.01),K20&lt;=$B$4),"✅","❌")</f>
         <v>✅</v>
       </c>
-      <c r="N20" s="32"/>
-      <c r="O20" s="33">
+      <c r="N20" s="31"/>
+      <c r="O20" s="32">
         <f>ABS(K20-$B$4)/$B$4</f>
         <v>0</v>
       </c>
-      <c r="P20" s="34">
+      <c r="P20" s="33">
         <f>K20-$B$4</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="29">
+        <v>32</v>
+      </c>
+      <c r="B21" s="28">
         <f>B20/($C$4/$B$4)</f>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="15">
         <f>B21*1000000</f>
         <v>250</v>
       </c>
@@ -1426,111 +2036,111 @@
         <v>12</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="14">
+        <v>33</v>
+      </c>
+      <c r="H21" s="15">
         <f>H19/B21</f>
         <v>10000</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="9">
         <f>H21/1000</f>
         <v>10</v>
       </c>
-      <c r="L21" s="10" t="s">
-        <v>34</v>
+      <c r="L21" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="M21" t="str">
         <f>IF(AND((ABS(K21-$C$4)/$C$4&lt;=0.01),K21&lt;=$C$4),"✅","❌")</f>
         <v>✅</v>
       </c>
-      <c r="N21" s="32"/>
-      <c r="O21" s="33">
+      <c r="N21" s="31"/>
+      <c r="O21" s="32">
         <f>ABS(K21-$C$4)/$C$4</f>
         <v>0</v>
       </c>
-      <c r="P21" s="34">
+      <c r="P21" s="33">
         <f>K21-$C$4</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="27">
+      <c r="A23" s="26">
         <f>E24</f>
         <v>3.3</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" s="31" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30" t="s">
         <v>38</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="30">
+        <v>28</v>
+      </c>
+      <c r="B24" s="29">
         <v>0</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="35">
+      <c r="D24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="34">
         <v>3.3</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>28</v>
+      <c r="F24" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="30">
+        <v>33</v>
+      </c>
+      <c r="H24" s="29">
         <f>E24-B24</f>
         <v>3.3</v>
       </c>
-      <c r="I24" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
+      <c r="I24" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
     </row>
     <row r="25" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="15">
+        <v>31</v>
+      </c>
+      <c r="B25" s="16">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="15">
         <f>B25*1000000</f>
         <v>33000</v>
       </c>
@@ -1538,54 +2148,54 @@
         <v>12</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="14">
+        <v>33</v>
+      </c>
+      <c r="H25" s="15">
         <f>H24/B25</f>
         <v>99.999999999999986</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="8">
         <f>H25/1000</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="L25" s="10" t="s">
-        <v>34</v>
+      <c r="L25" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="M25" t="str">
         <f>IF(AND((ABS(K25-$B$4)/$B$4&lt;=0.01),K25&lt;=$B$4),"✅","❌")</f>
         <v>✅</v>
       </c>
-      <c r="N25" s="32"/>
-      <c r="O25" s="33">
+      <c r="N25" s="31"/>
+      <c r="O25" s="32">
         <f>ABS(K25-$B$4)/$B$4</f>
         <v>1.3877787807814457E-16</v>
       </c>
-      <c r="P25" s="34">
+      <c r="P25" s="33">
         <f>K25-$B$4</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="29">
+        <v>32</v>
+      </c>
+      <c r="B26" s="28">
         <f>B25/($C$4/$B$4)</f>
         <v>3.3E-4</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="15">
         <f>B26*1000000</f>
         <v>330</v>
       </c>
@@ -1593,42 +2203,42 @@
         <v>12</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="14">
+        <v>33</v>
+      </c>
+      <c r="H26" s="15">
         <f>H24/B26</f>
         <v>10000</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="9">
         <f>H26/1000</f>
         <v>10</v>
       </c>
-      <c r="L26" s="10" t="s">
-        <v>34</v>
+      <c r="L26" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="M26" t="str">
         <f>IF(AND((ABS(K26-$C$4)/$C$4&lt;=0.01),K26&lt;=$C$4),"✅","❌")</f>
         <v>✅</v>
       </c>
-      <c r="N26" s="32"/>
-      <c r="O26" s="33">
+      <c r="N26" s="31"/>
+      <c r="O26" s="32">
         <f>ABS(K26-$C$4)/$C$4</f>
         <v>0</v>
       </c>
-      <c r="P26" s="34">
+      <c r="P26" s="33">
         <f>K26-$C$4</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
-        <v>39</v>
+      <c r="A28" s="25" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1644,45 +2254,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="10.83203125" style="7"/>
+    <col min="3" max="4" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="C4" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>43</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <f>A5/B5</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <f>B5*B5*C5</f>
         <v>60</v>
       </c>
@@ -1691,14 +2301,14 @@
       <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <f t="shared" ref="C6:C10" si="0">A6/B6</f>
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <f t="shared" ref="D6:D10" si="1">B6*B6*C6</f>
         <v>100</v>
       </c>
@@ -1707,71 +2317,71 @@
       <c r="A7">
         <v>15</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <v>3</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="10">
         <v>3</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -1784,15 +2394,15 @@
       <c r="A12">
         <v>3.3</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="10">
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ref="C11:C20" si="2">A12/B12</f>
+        <f t="shared" ref="C12:C20" si="2">A12/B12</f>
         <v>0.32999999999999996</v>
       </c>
-      <c r="D12" s="7">
-        <f t="shared" ref="D11:D20" si="3">B12*B12*C12</f>
+      <c r="D12" s="8">
+        <f t="shared" ref="D12:D20" si="3">B12*B12*C12</f>
         <v>32.999999999999993</v>
       </c>
     </row>
@@ -1800,14 +2410,14 @@
       <c r="A13">
         <v>3.3</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="10">
         <v>3</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <f t="shared" si="2"/>
         <v>1.0999999999999999</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <f t="shared" si="3"/>
         <v>9.8999999999999986</v>
       </c>
@@ -1816,14 +2426,14 @@
       <c r="A14">
         <v>3.3</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <v>2</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <f t="shared" si="2"/>
         <v>1.65</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="8">
         <f t="shared" si="3"/>
         <v>6.6</v>
       </c>
@@ -1832,14 +2442,14 @@
       <c r="A15">
         <v>3.3</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="10">
         <v>1</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <f t="shared" si="2"/>
         <v>3.3</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="8">
         <f t="shared" si="3"/>
         <v>3.3</v>
       </c>
@@ -1848,14 +2458,14 @@
       <c r="A16">
         <v>3.3</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="10">
         <v>0.5</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <f t="shared" si="2"/>
         <v>6.6</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <f t="shared" si="3"/>
         <v>1.65</v>
       </c>
@@ -1864,33 +2474,33 @@
       <c r="A17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="10">
         <v>10</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <f t="shared" si="2"/>
         <v>0.11000000000000001</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="8">
         <f t="shared" si="3"/>
         <v>11.000000000000002</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="10">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <f t="shared" si="2"/>
         <v>0.3666666666666667</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <f t="shared" si="3"/>
         <v>3.3000000000000003</v>
       </c>
@@ -1899,14 +2509,14 @@
       <c r="A19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="10">
         <v>2</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="8">
         <f t="shared" si="3"/>
         <v>2.2000000000000002</v>
       </c>
@@ -1915,14 +2525,14 @@
       <c r="A20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="10">
         <v>0.5</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="8">
         <f t="shared" si="3"/>
         <v>0.55000000000000004</v>
       </c>
@@ -1931,14 +2541,14 @@
       <c r="A22">
         <v>24</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="10">
         <v>5</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <f t="shared" ref="C22" si="4">A22/B22</f>
         <v>4.8</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="8">
         <f t="shared" ref="D22" si="5">B22*B22*C22</f>
         <v>120</v>
       </c>
@@ -1947,14 +2557,14 @@
       <c r="A23">
         <v>24</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="10">
         <v>2.5</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <f t="shared" ref="C23:C25" si="6">A23/B23</f>
         <v>9.6</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="8">
         <f t="shared" ref="D23:D25" si="7">B23*B23*C23</f>
         <v>60</v>
       </c>
@@ -1963,14 +2573,14 @@
       <c r="A24">
         <v>12</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="10">
         <v>5</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <f t="shared" si="6"/>
         <v>2.4</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="8">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
@@ -1979,14 +2589,14 @@
       <c r="A25">
         <v>12</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="10">
         <v>2.5</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <f t="shared" si="6"/>
         <v>4.8</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="8">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
@@ -2008,12 +2618,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2024,7 +2634,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -2034,38 +2644,38 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
-        <v>51</v>
+      <c r="B6" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="A7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="12">
         <v>0.2</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <f>$B$3*B7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <f>$B$4*B7</f>
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -2081,7 +2691,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>0.8</v>
@@ -2097,9 +2707,9 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="7">
+        <v>51</v>
+      </c>
+      <c r="B10" s="8">
         <v>2</v>
       </c>
       <c r="C10">
@@ -2117,10 +2727,453 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84055106-7AF4-2348-918B-2A71BC6F1ECC}">
+  <dimension ref="B1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <f>C7*1000</f>
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="12">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <f>C8*1000</f>
+        <v>3000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2">
+        <f>C8*C7</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="8">
+        <f>C9*1000</f>
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2">
+        <f>C6-C9</f>
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="7">
+        <f>(C8^2)*C7</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8">
+        <f>C11*1000</f>
+        <v>18.000000000000004</v>
+      </c>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I12" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="39">
+        <f>C8</f>
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <f>C14*1000</f>
+        <v>3000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="12">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="39">
+        <f>C7</f>
+        <v>2E-3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <f>C15*1000</f>
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="7">
+        <f>1000/(J14+1000)</f>
+        <v>0.99009900990099009</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16">
+        <v>200</v>
+      </c>
+      <c r="I16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="1">
+        <f>100-(100*J15)</f>
+        <v>0.99009900990098743</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18">
+        <f>C14*C15*C16</f>
+        <v>1.2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <f>C18*1000</f>
+        <v>1200</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="39">
+        <f>C8</f>
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <f>C21*1000</f>
+        <v>3000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="39">
+        <f>J14</f>
+        <v>10</v>
+      </c>
+      <c r="K21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="39">
+        <f>C7</f>
+        <v>2E-3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <f>C22*1000</f>
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="7">
+        <f>10000/((9*J21)+10000)</f>
+        <v>0.99108027750247774</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23">
+        <v>500</v>
+      </c>
+      <c r="I23" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="1">
+        <f>100-(100*J22)</f>
+        <v>0.89197224975222866</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25">
+        <f>C21*C22*C23</f>
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <f>C25*1000</f>
+        <v>3000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L7" r:id="rId1" xr:uid="{4679A02F-A842-8241-B9D7-EABCC67C7C22}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D85038-4FFE-734F-BC34-171E1434C818}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2254,22 +3307,3985 @@
         <v>1163.4038032123865</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="8">
+        <v>18</v>
+      </c>
+      <c r="B16" s="9">
         <f>54680/B15</f>
         <v>47.000018264524989</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F21E6C8-4103-F049-BAC8-C986D2C10697}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="15">
+        <v>550000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9">
+        <v>220</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="2">
+        <f>((B9/B10)+1)*0.6</f>
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8268B211-3E44-624F-9B1E-531CA8A032C6}">
+  <dimension ref="A1:Q86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" customWidth="1"/>
+    <col min="9" max="10" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+    </row>
+    <row r="8" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="47">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <f>B9*1000</f>
+        <v>12.200000000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <f>B10*1000</f>
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15">
+        <v>1.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17">
+        <v>1.2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18">
+        <v>0.75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19">
+        <v>1.2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="45"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22">
+        <v>5.3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="45"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24">
+        <v>85.3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25">
+        <v>46.5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26">
+        <v>133</v>
+      </c>
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="45"/>
+    </row>
+    <row r="29" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="12">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="66" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="12">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="12">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="12">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="12">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="12">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="61">
+        <f>B30/B35</f>
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="62">
+        <f>B34*B43</f>
+        <v>188</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <f>B44/1000</f>
+        <v>0.188</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="63">
+        <f>(5000/B43)/1000</f>
+        <v>1.25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46">
+        <f>(E44*B30)/2</f>
+        <v>1.88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="69">
+        <v>10000</v>
+      </c>
+      <c r="C47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="64" t="str">
+        <f>IF(B47&gt;B35,"✅","❌")</f>
+        <v>✅</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="54">
+        <f>4834/B33</f>
+        <v>966.8</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="54">
+        <f>VLOOKUP(B51,'E96 Series'!A2:A577,1,TRUE)</f>
+        <v>953</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="54">
+        <v>470</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" s="63">
+        <v>24.73698355809114</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>189</v>
+      </c>
+      <c r="B61" s="70">
+        <f>(($B$16*(B59+B60))/B60)</f>
+        <v>21.999880488091936</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="14" t="str">
+        <f>IF(ABS(B61-B31)&lt;0.01,"✅","❌")</f>
+        <v>✅</v>
+      </c>
+      <c r="F61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B62" s="65"/>
+      <c r="E62" s="14"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="65"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="65"/>
+      <c r="E64" s="14"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="71"/>
+      <c r="E65" s="14" t="str">
+        <f>IF(ABS(B65-B35)&lt;0.01,"✅","❌")</f>
+        <v>❌</v>
+      </c>
+      <c r="F65" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B66" s="71"/>
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B67" s="71"/>
+      <c r="E67" s="14"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" s="65">
+        <v>20</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" s="65">
+        <v>30</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="14"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" s="65">
+        <f>(B68*B69)/(B68+B69)</f>
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="14"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B71" s="65"/>
+      <c r="E71" s="14"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="63">
+        <f>VLOOKUP(B60,'E96 Series'!A2:A577,1,TRUE)</f>
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>170</v>
+      </c>
+      <c r="B73" s="2">
+        <f>(($B$19*(B59+B72))/B72)</f>
+        <v>24.409876543209876</v>
+      </c>
+      <c r="C73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="14" t="str">
+        <f>IF(ABS(B73-B31)&lt;0.05,"✅","❌")</f>
+        <v>❌</v>
+      </c>
+      <c r="F73" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="49"/>
+      <c r="K79" s="49"/>
+      <c r="L79" s="49"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H81" s="46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" s="12">
+        <v>5.2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82">
+        <f>B82</f>
+        <v>5.2</v>
+      </c>
+      <c r="I82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83">
+        <f>B83*1000</f>
+        <v>50</v>
+      </c>
+      <c r="F83" t="s">
+        <v>86</v>
+      </c>
+      <c r="H83" s="12">
+        <v>5</v>
+      </c>
+      <c r="I83" t="s">
+        <v>6</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83">
+        <f>H83*1000</f>
+        <v>5000</v>
+      </c>
+      <c r="L83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="2">
+        <f>B$83*MAX($B$9,$B$10)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="8">
+        <f>B84*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>77</v>
+      </c>
+      <c r="H84" s="2">
+        <f>H$83*MAX($B$9,$B$10)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K84" s="8">
+        <f>H84*1000</f>
+        <v>100</v>
+      </c>
+      <c r="L84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="2">
+        <f>B$82-B$84</f>
+        <v>5.1989999999999998</v>
+      </c>
+      <c r="C85" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="8"/>
+      <c r="H85" s="2">
+        <f>H$82-H$84</f>
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="I85" t="s">
+        <v>29</v>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="K85" s="8"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>117</v>
+      </c>
+      <c r="B86" s="7">
+        <f>(B$83^2)*MAX($B$9,$B$10)</f>
+        <v>5.0000000000000009E-5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="8">
+        <f>B86*1000</f>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>89</v>
+      </c>
+      <c r="H86" s="7">
+        <f>(H$83^2)*MAX($B$9,$B$10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K86" s="8">
+        <f>H86*1000</f>
+        <v>500</v>
+      </c>
+      <c r="L86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06D8B5D-86F9-0E4C-A16A-6C129605570D}">
+  <dimension ref="A1:A577"/>
+  <sheetViews>
+    <sheetView topLeftCell="A180" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>6340</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>6490</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>6810</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>6980</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>7870</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>8660</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>8870</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>9090</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>9310</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>9530</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>9760</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>22100</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>23200</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>23700</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>24300</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>24900</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>26100</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>27400</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>28700</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>29400</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>30100</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>30900</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>31600</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>33200</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>34800</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>35700</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>37400</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>38300</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>39200</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>40200</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>41200</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>46400</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>48700</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>49900</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>51100</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>52300</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>53600</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>54900</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>56200</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>60400</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>61900</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>63400</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>64900</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>66500</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>68100</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>69800</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>71500</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>73200</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>76800</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>78700</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>80600</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>82500</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>84500</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>86600</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>88700</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>90900</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>93100</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>95300</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>97600</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>107000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>113000</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>121000</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>124000</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>137000</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>143000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>147000</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>158000</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>169000</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>174000</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>178000</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>187000</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>191000</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>196000</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>221000</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>226000</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>232000</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>237000</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>243000</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>249000</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>261000</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>267000</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>274000</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>287000</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>294000</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>301000</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>309000</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>316000</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>324000</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>332000</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>348000</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>357000</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>383000</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>392000</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>402000</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>412000</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>422000</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>442000</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>453000</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>464000</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>475000</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>487000</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>499000</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>511000</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>523000</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>536000</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>549000</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>562000</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>576000</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>590000</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>604000</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>619000</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>634000</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>649000</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>665000</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>681000</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>698000</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>715000</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>732000</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>768000</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>787000</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>806000</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>825000</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>845000</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>866000</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>887000</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>909000</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>931000</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>953000</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>976000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E216125A-A661-564A-B74B-C98052987CAC}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <f>B4*B2</f>
+        <v>0.58500000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
